--- a/Exercices/Block 1 - Forecasting/1_Forecasting_Correction - Anotated Raph.xlsx
+++ b/Exercices/Block 1 - Forecasting/1_Forecasting_Correction - Anotated Raph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitelibrebruxelles-my.sharepoint.com/personal/raphael_humblet_ulb_be/Documents/ULB/MA2/ULB-GEST-H501/Exercices/Block 1 - Forecasting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="13_ncr:1_{3F8A16A5-5458-2B4A-A85F-5EA095FD1B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{434C873A-FDBF-4F5C-9A10-4FBAD8CB4859}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{3F8A16A5-5458-2B4A-A85F-5EA095FD1B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B1A68F3-1E5C-478A-8A75-6C800147FD87}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5842" yWindow="3773" windowWidth="17280" windowHeight="9990" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Naïve" sheetId="16" r:id="rId1"/>
@@ -1743,6 +1743,10 @@
     <xf numFmtId="10" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1755,18 +1759,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
-    <cellStyle name="Monétaire" xfId="5" builtinId="4"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{3858FDAA-B3E1-5C4F-85A9-0CA787CDDBCF}"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
     <cellStyle name="Per cent 2" xfId="4" xr:uid="{F01528EF-3DA0-DF43-B078-CFA947FA6E1C}"/>
-    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1784,7 +1784,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2477,7 +2477,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3156,7 +3156,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3554,7 +3554,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4224,7 +4224,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4894,7 +4894,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5380,7 +5380,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5863,7 +5863,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6340,7 +6340,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6877,7 +6877,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7423,7 +7423,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15902,6 +15902,15 @@
             <a:t>s(t) = gamma * d(t)/a(t) + (1-gamma) * s(t-p)</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" kern="1200" baseline="0"/>
+            <a:t>Pattern = (Level + Trend) * seasonality</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -15942,6 +15951,50 @@
         <a:xfrm>
           <a:off x="5362221" y="5215978"/>
           <a:ext cx="5276851" cy="2850461"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37262</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>298390</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>67540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A9FC05-D228-99D2-6EF7-70C540EF7EBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4598056" y="8314764"/>
+          <a:ext cx="5785628" cy="3059511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16332,7 +16385,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -16634,9 +16687,9 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -16647,7 +16700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -16656,7 +16709,7 @@
       </c>
       <c r="C2" s="53"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -16668,7 +16721,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -16680,7 +16733,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -16692,7 +16745,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -16704,7 +16757,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -16716,7 +16769,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -16728,7 +16781,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -16740,7 +16793,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -16752,7 +16805,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -16764,7 +16817,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -16774,7 +16827,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -16784,7 +16837,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -16794,52 +16847,52 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q19">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q20">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q21">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q22">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q23">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q24">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q25">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q26">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q27">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q28">
         <v>40</v>
       </c>
@@ -16858,14 +16911,14 @@
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" customWidth="1"/>
-    <col min="2" max="5" width="23.3984375" customWidth="1"/>
-    <col min="12" max="12" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="5" width="23.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="163" t="s">
         <v>36</v>
       </c>
@@ -16881,17 +16934,17 @@
       <c r="E1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="177" t="s">
+      <c r="F1" s="173" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="177" t="s">
+      <c r="G1" s="173" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="177" t="s">
+      <c r="H1" s="173" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -16913,7 +16966,7 @@
         <f>AVERAGE(B2:B9)</f>
         <v>3.5</v>
       </c>
-      <c r="G2" s="178">
+      <c r="G2" s="174">
         <f>AVERAGE(C2:C9)</f>
         <v>3.2749999999999999</v>
       </c>
@@ -16922,7 +16975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -16941,7 +16994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -16963,7 +17016,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -16982,7 +17035,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>5</v>
       </c>
@@ -17005,7 +17058,7 @@
       </c>
       <c r="L6" s="159"/>
     </row>
-    <row r="7" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>6</v>
       </c>
@@ -17030,7 +17083,7 @@
         <v>0.99443480052579969</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>7</v>
       </c>
@@ -17055,7 +17108,7 @@
         <v>0.98890057249678698</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>8</v>
       </c>
@@ -17080,7 +17133,7 @@
         <v>0.98705066791291818</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>46</v>
       </c>
@@ -17103,7 +17156,7 @@
         <v>9.3788572311856361E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="45" t="s">
         <v>49</v>
@@ -17126,7 +17179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="34" t="s">
         <v>52</v>
       </c>
@@ -17145,7 +17198,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="164" t="s">
         <v>54</v>
       </c>
@@ -17172,7 +17225,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
         <v>60</v>
       </c>
@@ -17192,7 +17245,7 @@
         <v>4.2910912101752315E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>61</v>
       </c>
@@ -17213,7 +17266,7 @@
         <v>8.7962962962963107E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>63</v>
       </c>
@@ -17240,7 +17293,7 @@
       <c r="O17" s="157"/>
       <c r="P17" s="157"/>
     </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
         <v>3</v>
       </c>
@@ -17255,7 +17308,7 @@
       </c>
       <c r="E18" s="35"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K19" s="158"/>
       <c r="L19" s="158" t="s">
         <v>68</v>
@@ -17282,7 +17335,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="16.899999999999999" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>2</v>
       </c>
@@ -17314,7 +17367,7 @@
         <v>1.6920868160343343</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
         <v>76</v>
       </c>
@@ -17352,7 +17405,7 @@
         <v>0.56520298124958201</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>79</v>
       </c>
@@ -17361,7 +17414,7 @@
         <v>3.0194444444444444</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>64</v>
       </c>
@@ -17370,7 +17423,7 @@
         <v>3.5305555555555554</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>65</v>
       </c>
@@ -17379,7 +17432,7 @@
         <v>4.0416666666666661</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>65</v>
       </c>
@@ -17402,17 +17455,17 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" customWidth="1"/>
-    <col min="2" max="2" width="19.3984375" customWidth="1"/>
-    <col min="3" max="3" width="28.1328125" customWidth="1"/>
-    <col min="4" max="4" width="22.265625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="17.1328125" customWidth="1"/>
+    <col min="7" max="9" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>36</v>
       </c>
@@ -17432,7 +17485,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -17452,7 +17505,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -17478,7 +17531,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -17504,7 +17557,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -17524,7 +17577,7 @@
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>5</v>
       </c>
@@ -17550,7 +17603,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>6</v>
       </c>
@@ -17576,7 +17629,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>7</v>
       </c>
@@ -17594,7 +17647,7 @@
       <c r="H8" s="75"/>
       <c r="I8" s="75"/>
     </row>
-    <row r="9" spans="1:9" ht="16.899999999999999" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>8</v>
       </c>
@@ -17609,7 +17662,7 @@
       </c>
       <c r="F9" s="22"/>
     </row>
-    <row r="10" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>86</v>
       </c>
@@ -17626,7 +17679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F11" s="23" t="s">
         <v>76</v>
       </c>
@@ -17634,7 +17687,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F12" s="25" t="s">
         <v>79</v>
       </c>
@@ -17643,7 +17696,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="25" t="s">
         <v>64</v>
       </c>
@@ -17652,7 +17705,7 @@
         <v>3.9311111111111119</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="25" t="s">
         <v>65</v>
       </c>
@@ -17661,7 +17714,7 @@
         <v>3.5911111111111111</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="25" t="s">
         <v>66</v>
       </c>
@@ -17670,13 +17723,13 @@
         <v>3.1833333333333336</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="79"/>
       <c r="B28" s="79" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="80" t="s">
         <v>88</v>
       </c>
@@ -17684,7 +17737,7 @@
         <v>3.1444444444444453</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="80" t="s">
         <v>84</v>
       </c>
@@ -17692,7 +17745,7 @@
         <v>-0.33333333333333343</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="80" t="s">
         <v>85</v>
       </c>
@@ -17709,16 +17762,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A6771D-FFCC-431B-8E39-936F7DC5ACF2}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>89</v>
       </c>
@@ -17744,7 +17797,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -17760,7 +17813,7 @@
       <c r="G2" s="28"/>
       <c r="H2" s="62"/>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -17776,7 +17829,7 @@
       <c r="G3" s="28"/>
       <c r="H3" s="62"/>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -17792,7 +17845,7 @@
       <c r="G4" s="28"/>
       <c r="H4" s="62"/>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -17808,7 +17861,7 @@
       <c r="G5" s="28"/>
       <c r="H5" s="62"/>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>5</v>
       </c>
@@ -17824,7 +17877,7 @@
       <c r="G6" s="28"/>
       <c r="H6" s="62"/>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>6</v>
       </c>
@@ -17853,12 +17906,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="16.86328125" customWidth="1"/>
+    <col min="1" max="6" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="50.65" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A3" s="81" t="s">
         <v>89</v>
       </c>
@@ -17878,7 +17931,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="165">
         <v>1</v>
       </c>
@@ -17892,7 +17945,7 @@
       <c r="E4" s="167"/>
       <c r="F4" s="168"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="165">
         <v>2</v>
       </c>
@@ -17906,7 +17959,7 @@
       <c r="E5" s="167"/>
       <c r="F5" s="168"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="165">
         <v>3</v>
       </c>
@@ -17920,7 +17973,7 @@
       <c r="E6" s="167"/>
       <c r="F6" s="168"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="165">
         <v>4</v>
       </c>
@@ -17934,7 +17987,7 @@
       <c r="E7" s="167"/>
       <c r="F7" s="168"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="165">
         <v>5</v>
       </c>
@@ -17948,7 +18001,7 @@
       <c r="E8" s="167"/>
       <c r="F8" s="168"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="165">
         <v>6</v>
       </c>
@@ -17962,7 +18015,7 @@
       <c r="E9" s="167"/>
       <c r="F9" s="168"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="165">
         <v>7</v>
       </c>
@@ -17976,7 +18029,7 @@
       <c r="E10" s="167"/>
       <c r="F10" s="168"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="165">
         <v>8</v>
       </c>
@@ -17990,7 +18043,7 @@
       <c r="E11" s="167"/>
       <c r="F11" s="168"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="165">
         <v>9</v>
       </c>
@@ -18004,7 +18057,7 @@
       <c r="E12" s="167"/>
       <c r="F12" s="168"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="165">
         <v>10</v>
       </c>
@@ -18018,7 +18071,7 @@
       <c r="E13" s="167"/>
       <c r="F13" s="168"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="165">
         <v>11</v>
       </c>
@@ -18032,7 +18085,7 @@
       <c r="E14" s="167"/>
       <c r="F14" s="168"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="165">
         <v>12</v>
       </c>
@@ -18046,7 +18099,7 @@
       <c r="E15" s="167"/>
       <c r="F15" s="168"/>
     </row>
-    <row r="16" spans="1:6" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="84" t="s">
         <v>86</v>
       </c>
@@ -18071,7 +18124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="86"/>
       <c r="B17" s="87"/>
       <c r="C17" s="88"/>
@@ -18097,12 +18150,12 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="15.1328125" customWidth="1"/>
+    <col min="1" max="10" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>89</v>
       </c>
@@ -18134,7 +18187,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64">
         <v>1</v>
       </c>
@@ -18150,7 +18203,7 @@
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
     </row>
-    <row r="3" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="64">
         <v>2</v>
       </c>
@@ -18166,7 +18219,7 @@
       <c r="I3" s="64"/>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="64">
         <v>3</v>
       </c>
@@ -18182,7 +18235,7 @@
       <c r="I4" s="64"/>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="64">
         <v>4</v>
       </c>
@@ -18200,7 +18253,7 @@
       <c r="I5" s="67"/>
       <c r="J5" s="66"/>
     </row>
-    <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="64">
         <v>5</v>
       </c>
@@ -18218,7 +18271,7 @@
       <c r="I6" s="67"/>
       <c r="J6" s="66"/>
     </row>
-    <row r="7" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="64">
         <v>6</v>
       </c>
@@ -18236,7 +18289,7 @@
       <c r="I7" s="67"/>
       <c r="J7" s="66"/>
     </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="64">
         <v>7</v>
       </c>
@@ -18254,7 +18307,7 @@
       <c r="I8" s="67"/>
       <c r="J8" s="66"/>
     </row>
-    <row r="9" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="64">
         <v>8</v>
       </c>
@@ -18272,7 +18325,7 @@
       <c r="I9" s="67"/>
       <c r="J9" s="66"/>
     </row>
-    <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="64">
         <v>9</v>
       </c>
@@ -18290,7 +18343,7 @@
       <c r="I10" s="67"/>
       <c r="J10" s="66"/>
     </row>
-    <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="64">
         <v>10</v>
       </c>
@@ -18308,7 +18361,7 @@
       <c r="I11" s="67"/>
       <c r="J11" s="66"/>
     </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>102</v>
       </c>
@@ -18335,7 +18388,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="16" t="s">
         <v>105</v>
       </c>
@@ -18354,20 +18407,20 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" style="93" customWidth="1"/>
-    <col min="2" max="4" width="11.1328125" style="93" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" style="93" customWidth="1"/>
-    <col min="6" max="11" width="11.1328125" style="93" customWidth="1"/>
-    <col min="12" max="12" width="11.1328125" style="92" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.86328125" style="92"/>
+    <col min="1" max="1" width="11.7109375" style="93" customWidth="1"/>
+    <col min="2" max="4" width="11.140625" style="93" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="93" customWidth="1"/>
+    <col min="6" max="11" width="11.140625" style="93" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="92" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.85546875" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>89</v>
       </c>
@@ -18405,7 +18458,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="97">
         <v>1</v>
       </c>
@@ -18452,7 +18505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97">
         <v>2</v>
       </c>
@@ -18499,7 +18552,7 @@
         <v>-1.3333333333333335</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="97">
         <v>3</v>
       </c>
@@ -18546,7 +18599,7 @@
         <v>-2.666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="97">
         <v>4</v>
       </c>
@@ -18593,7 +18646,7 @@
         <v>-3.7142857142857144</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="97">
         <v>5</v>
       </c>
@@ -18640,7 +18693,7 @@
         <v>-2.9411764705882355</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="97">
         <v>6</v>
       </c>
@@ -18687,7 +18740,7 @@
         <v>-4.2857142857142856</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="97">
         <v>7</v>
       </c>
@@ -18734,7 +18787,7 @@
         <v>-5.2181818181818178</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="97">
         <v>8</v>
       </c>
@@ -18781,7 +18834,7 @@
         <v>-3.1304347826086953</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="97">
         <v>9</v>
       </c>
@@ -18828,7 +18881,7 @@
         <v>-2.2207792207792205</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="97">
         <v>10</v>
       </c>
@@ -18875,7 +18928,7 @@
         <v>-0.43478260869565188</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="97">
         <v>11</v>
       </c>
@@ -18922,7 +18975,7 @@
         <v>-1.6019417475728148</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="97">
         <v>12</v>
       </c>
@@ -18982,14 +19035,14 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="21" width="10.86328125" style="92"/>
-    <col min="22" max="27" width="10.86328125" style="100"/>
-    <col min="28" max="16384" width="10.86328125" style="92"/>
+    <col min="1" max="21" width="10.85546875" style="92"/>
+    <col min="22" max="27" width="10.85546875" style="100"/>
+    <col min="28" max="16384" width="10.85546875" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="106" t="s">
         <v>112</v>
       </c>
@@ -19030,7 +19083,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="97" t="s">
         <v>123</v>
       </c>
@@ -19072,7 +19125,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
         <v>123</v>
       </c>
@@ -19116,7 +19169,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="97" t="s">
         <v>123</v>
       </c>
@@ -19160,7 +19213,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="97" t="s">
         <v>123</v>
       </c>
@@ -19196,7 +19249,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="97" t="s">
         <v>123</v>
       </c>
@@ -19232,7 +19285,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="97" t="s">
         <v>123</v>
       </c>
@@ -19268,7 +19321,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="97" t="s">
         <v>123</v>
       </c>
@@ -19304,7 +19357,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="97" t="s">
         <v>123</v>
       </c>
@@ -19340,7 +19393,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="97" t="s">
         <v>123</v>
       </c>
@@ -19376,7 +19429,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="97" t="s">
         <v>123</v>
       </c>
@@ -19412,7 +19465,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="97" t="s">
         <v>123</v>
       </c>
@@ -19448,7 +19501,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="97" t="s">
         <v>123</v>
       </c>
@@ -19484,7 +19537,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="93"/>
       <c r="B14" s="93"/>
       <c r="C14" s="93"/>
@@ -19504,7 +19557,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="93"/>
       <c r="B15" s="93"/>
       <c r="C15" s="93"/>
@@ -19524,7 +19577,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="93"/>
       <c r="B16" s="93"/>
       <c r="C16" s="93"/>
@@ -19544,7 +19597,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="93"/>
       <c r="B17" s="93"/>
       <c r="C17" s="93"/>
@@ -19564,7 +19617,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="93"/>
       <c r="B18" s="93"/>
       <c r="C18" s="93"/>
@@ -19584,7 +19637,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="93"/>
       <c r="B19" s="93"/>
       <c r="C19" s="93"/>
@@ -19604,7 +19657,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="93"/>
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
@@ -19624,7 +19677,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="93"/>
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
@@ -19644,7 +19697,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="93"/>
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
@@ -19664,7 +19717,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="93"/>
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
@@ -19684,7 +19737,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="93"/>
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
@@ -19704,7 +19757,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="93"/>
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
@@ -19724,7 +19777,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="93"/>
       <c r="B26" s="93"/>
       <c r="C26" s="93"/>
@@ -19744,7 +19797,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="93"/>
       <c r="B27" s="93"/>
       <c r="C27" s="93"/>
@@ -19764,7 +19817,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="93"/>
       <c r="B28" s="93"/>
       <c r="C28" s="93"/>
@@ -19784,7 +19837,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="93"/>
       <c r="B29" s="93"/>
       <c r="C29" s="93"/>
@@ -19804,7 +19857,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="93"/>
       <c r="B30" s="93"/>
       <c r="C30" s="93"/>
@@ -19824,7 +19877,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="93"/>
       <c r="B31" s="93"/>
       <c r="C31" s="93"/>
@@ -19844,7 +19897,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="93"/>
       <c r="B32" s="93"/>
       <c r="C32" s="93"/>
@@ -19864,7 +19917,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="93"/>
       <c r="B33" s="93"/>
       <c r="C33" s="93"/>
@@ -19884,7 +19937,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="93"/>
       <c r="B34" s="93"/>
       <c r="C34" s="93"/>
@@ -19904,7 +19957,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="93"/>
       <c r="B35" s="93"/>
       <c r="C35" s="93"/>
@@ -19924,7 +19977,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="93"/>
       <c r="B36" s="93"/>
       <c r="C36" s="93"/>
@@ -19944,7 +19997,7 @@
         <v>70.949999999999875</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="93"/>
       <c r="B37" s="93"/>
       <c r="C37" s="93"/>
@@ -19974,17 +20027,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1328125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -20013,7 +20066,7 @@
         <v>0.29808133083174404</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -20038,7 +20091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -20073,7 +20126,7 @@
         <v>5.7983454731007944</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -20108,7 +20161,7 @@
         <v>4.3146464464225351</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -20136,7 +20189,7 @@
         <v>23.113735796723134</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -20164,7 +20217,7 @@
         <v>2.7378471527578427</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -20192,7 +20245,7 @@
         <v>161.22518072142719</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -20220,7 +20273,7 @@
         <v>18.803274529379678</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -20248,7 +20301,7 @@
         <v>3.7081610853418757E-13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -20276,7 +20329,7 @@
         <v>64.70131429570003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -20304,7 +20357,7 @@
         <v>28.005939532867973</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -20317,14 +20370,14 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -20345,14 +20398,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1328125" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" customWidth="1"/>
-    <col min="3" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -20372,7 +20425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -20383,7 +20436,7 @@
       <c r="D2" s="53"/>
       <c r="E2" s="112"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -20394,7 +20447,7 @@
       <c r="D3" s="53"/>
       <c r="E3" s="112"/>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -20408,7 +20461,7 @@
       </c>
       <c r="E4" s="112"/>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -20426,7 +20479,7 @@
       <c r="E5" s="112"/>
       <c r="G5" s="72"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -20443,7 +20496,7 @@
       </c>
       <c r="E6" s="112"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -20463,7 +20516,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -20483,7 +20536,7 @@
         <v>106.8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -20503,7 +20556,7 @@
         <v>130.6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -20523,7 +20576,7 @@
         <v>153.19999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -20543,7 +20596,7 @@
         <v>173.2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -20561,7 +20614,7 @@
         <v>193.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -20579,7 +20632,7 @@
         <v>193.2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -20611,14 +20664,14 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1328125" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" customWidth="1"/>
-    <col min="3" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -20644,7 +20697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -20658,7 +20711,7 @@
       <c r="G2" s="112"/>
       <c r="H2" s="112"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -20672,7 +20725,7 @@
       <c r="G3" s="112"/>
       <c r="H3" s="112"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -20692,7 +20745,7 @@
       </c>
       <c r="H4" s="112"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -20718,7 +20771,7 @@
       </c>
       <c r="H5" s="112"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -20744,7 +20797,7 @@
       </c>
       <c r="H6" s="112"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -20776,7 +20829,7 @@
         <v>3.5999999999999943</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -20808,7 +20861,7 @@
         <v>4.4000000000000057</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -20840,7 +20893,7 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -20872,7 +20925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -20904,7 +20957,7 @@
         <v>3.1999999999999886</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -20925,7 +20978,7 @@
       <c r="G12" s="112"/>
       <c r="H12" s="112"/>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -20946,7 +20999,7 @@
       <c r="G13" s="53"/>
       <c r="H13" s="53"/>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -20967,7 +21020,7 @@
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F15" s="115">
         <f>AVERAGE(F4:F14)</f>
         <v>3.047619047619047</v>
@@ -20981,12 +21034,12 @@
         <v>3.5599999999999965</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F16" s="173" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21005,29 +21058,29 @@
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="12" width="18.265625" customWidth="1"/>
+    <col min="2" max="12" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="174" t="s">
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="176"/>
-    </row>
-    <row r="3" spans="2:12" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="178"/>
+    </row>
+    <row r="3" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
@@ -21062,7 +21115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="25.9" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" ht="27" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
@@ -21097,7 +21150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
@@ -21128,7 +21181,7 @@
       </c>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="2:12" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>23</v>
       </c>
@@ -21157,7 +21210,7 @@
       </c>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="2:12" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>24</v>
       </c>
@@ -21184,7 +21237,7 @@
       </c>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="2:12" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
@@ -21207,7 +21260,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="13" spans="2:12" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="H13" s="8">
         <v>0.2</v>
       </c>
@@ -21224,7 +21277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="14" spans="2:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G14" s="145">
         <v>0</v>
       </c>
@@ -21248,7 +21301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="15" spans="2:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G15" s="145">
         <v>1</v>
       </c>
@@ -21273,7 +21326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="16" spans="2:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G16" s="145">
         <v>2</v>
       </c>
@@ -21298,7 +21351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:12" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="17" spans="7:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G17" s="145">
         <v>3</v>
       </c>
@@ -21323,7 +21376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="7:12" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="18" spans="7:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G18" s="145">
         <v>4</v>
       </c>
@@ -21348,7 +21401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="7:12" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="19" spans="7:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G19" s="145">
         <v>5</v>
       </c>
@@ -21376,12 +21429,12 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.3984375" customWidth="1"/>
+    <col min="1" max="3" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -21398,7 +21451,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -21409,7 +21462,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -21421,7 +21474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -21433,7 +21486,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -21445,7 +21498,7 @@
         <v>50.28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -21457,7 +21510,7 @@
         <v>62.624000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -21469,7 +21522,7 @@
         <v>76.499200000000016</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -21481,7 +21534,7 @@
         <v>90.199360000000013</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -21493,7 +21546,7 @@
         <v>107.95948800000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -21505,7 +21558,7 @@
         <v>125.96759040000003</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -21517,7 +21570,7 @@
         <v>143.17407232000005</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -21527,7 +21580,7 @@
         <v>160.93925785600004</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -21537,7 +21590,7 @@
         <v>160.93925785600004</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -21561,14 +21614,14 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
@@ -21591,7 +21644,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="53">
         <v>1</v>
       </c>
@@ -21614,7 +21667,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="53">
         <v>2</v>
       </c>
@@ -21634,7 +21687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="53">
         <v>3</v>
       </c>
@@ -21654,7 +21707,7 @@
         <v>23.239999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="53">
         <v>4</v>
       </c>
@@ -21674,7 +21727,7 @@
         <v>23.859199999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="53">
         <v>5</v>
       </c>
@@ -21694,7 +21747,7 @@
         <v>23.829535999999987</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="53">
         <v>6</v>
       </c>
@@ -21714,7 +21767,7 @@
         <v>22.50922688</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="53">
         <v>7</v>
       </c>
@@ -21734,7 +21787,7 @@
         <v>22.963903270399992</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="53">
         <v>8</v>
       </c>
@@ -21754,7 +21807,7 @@
         <v>22.80650835123199</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="53">
         <v>9</v>
       </c>
@@ -21774,7 +21827,7 @@
         <v>21.639550905666557</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="53">
         <v>10</v>
       </c>
@@ -21794,7 +21847,7 @@
         <v>20.625934585090768</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="53">
         <v>11</v>
       </c>
@@ -21806,7 +21859,7 @@
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="53">
         <v>12</v>
       </c>
@@ -21818,7 +21871,7 @@
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="53">
         <v>13</v>
       </c>
@@ -21844,12 +21897,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="11" width="8.86328125" customWidth="1"/>
+    <col min="9" max="11" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -21872,7 +21925,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="73">
         <v>1</v>
       </c>
@@ -21903,7 +21956,7 @@
         <v>5.7157760961359019</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="73">
         <v>2</v>
       </c>
@@ -21933,7 +21986,7 @@
         <v>6.5999999999999943</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
         <v>3</v>
       </c>
@@ -21957,7 +22010,7 @@
         <v>12.866399999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="73">
         <v>4</v>
       </c>
@@ -21981,7 +22034,7 @@
         <v>15.368425600000009</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="73">
         <v>5</v>
       </c>
@@ -22005,7 +22058,7 @@
         <v>6.3720855424000149</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="73">
         <v>6</v>
       </c>
@@ -22029,7 +22082,7 @@
         <v>3.7400897655296035</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="73">
         <v>7</v>
       </c>
@@ -22053,7 +22106,7 @@
         <v>1.2827181270595531</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="73">
         <v>8</v>
       </c>
@@ -22077,7 +22130,7 @@
         <v>0.29351401830493273</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="73">
         <v>9</v>
       </c>
@@ -22107,7 +22160,7 @@
         <v>2.5304158328534925</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="73">
         <v>10</v>
       </c>
@@ -22137,7 +22190,7 @@
         <v>2.3883359790755208</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="73">
         <v>11</v>
       </c>
@@ -22155,7 +22208,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="73">
         <v>12</v>
       </c>
@@ -22173,7 +22226,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="73">
         <v>13</v>
       </c>
@@ -22191,7 +22244,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G15" s="152">
         <v>150</v>
       </c>
@@ -22199,7 +22252,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G16" s="152">
         <v>160</v>
       </c>
@@ -22207,7 +22260,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G17" s="152">
         <v>168</v>
       </c>
@@ -22215,7 +22268,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18" s="152">
         <v>173</v>
       </c>
@@ -22223,7 +22276,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G19" s="152">
         <v>178</v>
       </c>
@@ -22241,23 +22294,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="108" zoomScaleNormal="307" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.3984375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.1328125" style="1"/>
+    <col min="7" max="7" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
         <v>31</v>
       </c>
@@ -22290,7 +22343,7 @@
       </c>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="72">
         <v>1</v>
       </c>
@@ -22324,7 +22377,7 @@
       </c>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="72">
         <v>1</v>
       </c>
@@ -22358,7 +22411,7 @@
       </c>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="72">
         <v>1</v>
       </c>
@@ -22386,7 +22439,7 @@
       </c>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="72">
         <v>1</v>
       </c>
@@ -22413,7 +22466,7 @@
         <v>0.22085889570552147</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="72">
         <v>2</v>
       </c>
@@ -22443,7 +22496,7 @@
         <v>1.9957007937400659</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="72">
         <v>2</v>
       </c>
@@ -22473,7 +22526,7 @@
         <v>1.1086783708753742</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="72">
         <v>2</v>
       </c>
@@ -22507,7 +22560,7 @@
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="72">
         <v>2</v>
       </c>
@@ -22541,7 +22594,7 @@
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72">
         <v>3</v>
       </c>
@@ -22575,7 +22628,7 @@
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="72">
         <v>3</v>
       </c>
@@ -22609,7 +22662,7 @@
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="72">
         <v>3</v>
       </c>
@@ -22643,7 +22696,7 @@
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="72">
         <v>3</v>
       </c>
@@ -22677,7 +22730,7 @@
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="72">
         <v>4</v>
       </c>
@@ -22711,7 +22764,7 @@
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="72">
         <v>4</v>
       </c>
@@ -22745,7 +22798,7 @@
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="72">
         <v>4</v>
       </c>
@@ -22779,7 +22832,7 @@
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="72">
         <v>4</v>
       </c>
@@ -22813,7 +22866,7 @@
       <c r="L17"/>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="72">
         <v>5</v>
       </c>
@@ -22847,7 +22900,7 @@
       <c r="L18"/>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="72">
         <v>5</v>
       </c>
@@ -22881,7 +22934,7 @@
       <c r="L19"/>
       <c r="M19"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="72">
         <v>5</v>
       </c>
@@ -22915,7 +22968,7 @@
       <c r="L20"/>
       <c r="M20"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="72">
         <v>5</v>
       </c>
@@ -22949,7 +23002,7 @@
       <c r="L21"/>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="72">
         <v>6</v>
       </c>
@@ -22968,7 +23021,7 @@
       <c r="G22" s="140"/>
       <c r="H22" s="141"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="72">
         <v>6</v>
       </c>
@@ -22987,7 +23040,7 @@
       <c r="G23" s="118"/>
       <c r="H23" s="119"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="72">
         <v>6</v>
       </c>
@@ -23006,7 +23059,7 @@
       <c r="G24" s="118"/>
       <c r="H24" s="119"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="72">
         <v>6</v>
       </c>
@@ -23035,23 +23088,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.1328125" style="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -23081,7 +23134,7 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="73">
         <v>1</v>
       </c>
@@ -23109,7 +23162,7 @@
       </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="73">
         <v>2</v>
       </c>
@@ -23140,7 +23193,7 @@
       </c>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
         <v>3</v>
       </c>
@@ -23165,7 +23218,7 @@
       </c>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="73">
         <v>4</v>
       </c>
@@ -23189,7 +23242,7 @@
         <v>-6.4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="73">
         <v>5</v>
       </c>
@@ -23213,7 +23266,7 @@
         <v>8.3048000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="73">
         <v>6</v>
       </c>
@@ -23237,7 +23290,7 @@
         <v>0.8413759999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="73">
         <v>7</v>
       </c>
@@ -23265,7 +23318,7 @@
       <c r="J8"/>
       <c r="K8"/>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="73">
         <v>8</v>
       </c>
@@ -23293,7 +23346,7 @@
       <c r="J9"/>
       <c r="K9"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="73">
         <v>9</v>
       </c>
@@ -23321,7 +23374,7 @@
       <c r="J10"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="73">
         <v>10</v>
       </c>
@@ -23349,7 +23402,7 @@
       <c r="J11"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="73">
         <v>11</v>
       </c>
@@ -23377,7 +23430,7 @@
       <c r="J12"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="73">
         <v>12</v>
       </c>
@@ -23405,7 +23458,7 @@
       <c r="J13"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="73">
         <v>13</v>
       </c>
@@ -23433,7 +23486,7 @@
       <c r="J14"/>
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="73">
         <v>14</v>
       </c>
@@ -23461,7 +23514,7 @@
       <c r="J15"/>
       <c r="K15"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="73">
         <v>15</v>
       </c>
@@ -23489,7 +23542,7 @@
       <c r="J16"/>
       <c r="K16"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="73">
         <v>16</v>
       </c>
@@ -23517,7 +23570,7 @@
       <c r="J17"/>
       <c r="K17"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="73">
         <v>17</v>
       </c>
@@ -23545,7 +23598,7 @@
       <c r="J18"/>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="73">
         <v>18</v>
       </c>
@@ -23573,7 +23626,7 @@
       <c r="J19"/>
       <c r="K19"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="73">
         <v>19</v>
       </c>
@@ -23601,7 +23654,7 @@
       <c r="J20"/>
       <c r="K20"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="73">
         <v>20</v>
       </c>
@@ -23629,7 +23682,7 @@
       <c r="J21"/>
       <c r="K21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="73">
         <v>21</v>
       </c>
@@ -23650,7 +23703,7 @@
         <v>8.0352641228758035</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="73">
         <v>22</v>
       </c>
@@ -23671,7 +23724,7 @@
         <v>0.55069466093332575</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="73">
         <v>23</v>
       </c>
@@ -23692,7 +23745,7 @@
         <v>-4.0101363190712265</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="73">
         <v>24</v>
       </c>
@@ -23720,12 +23773,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A2D80723F61E8E48B44C32791AB79EAF" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="dfeb1cef9289b988e02c62b45d9f1082">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fb0af546-8adb-47f3-baac-5cb4c71f4200" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e941073ceb027b680dcaca81f0d1cb22" ns2:_="">
     <xsd:import namespace="fb0af546-8adb-47f3-baac-5cb4c71f4200"/>
@@ -23869,6 +23916,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -23879,15 +23932,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1972A55-6FB5-450D-A0FF-51E9D87A8333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A6F954-B64F-43DA-86C7-62E62C188AF3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23905,6 +23949,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1972A55-6FB5-450D-A0FF-51E9D87A8333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1362C07F-B5AC-4985-9E08-9C1EEC3CADCF}">
   <ds:schemaRefs>
